--- a/data/trans_orig/P25C$cursos_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25C$cursos_2023-Clase-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2386</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7164</v>
+        <v>6509</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03436985430609966</v>
+        <v>0.03436985430609964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009386094619468575</v>
+        <v>0.009341677895322011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.103183749422152</v>
+        <v>0.09375440217772377</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>2386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7556</v>
+        <v>6696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01192794118261902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003268688932364786</v>
+        <v>0.003229006888636022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03777013510933456</v>
+        <v>0.03347285348832296</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>3168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8857</v>
+        <v>8726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02425711475376342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006497495834380599</v>
+        <v>0.006713414120775039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06780911053814988</v>
+        <v>0.0668057672382321</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3565</v>
+        <v>3591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.010160754014804</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05135622328368123</v>
+        <v>0.05172689405733259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -846,19 +846,19 @@
         <v>3874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892</v>
+        <v>1046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9903</v>
+        <v>9477</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01936502064461126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004459482655580565</v>
+        <v>0.005231334295107626</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04950206005689167</v>
+        <v>0.04737675479103524</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3307</v>
+        <v>4055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00528953810296934</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02531515057490144</v>
+        <v>0.03104654859377094</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -896,19 +896,19 @@
         <v>2582</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6176</v>
+        <v>6305</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03719555640867919</v>
+        <v>0.03719555640867917</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009880516688130113</v>
+        <v>0.01067599399429895</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08895686793619344</v>
+        <v>0.09081880580421836</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -917,19 +917,19 @@
         <v>3273</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1206</v>
+        <v>1233</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6944</v>
+        <v>7689</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01636241337129807</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006030552330445556</v>
+        <v>0.006163133207507268</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03471468980511714</v>
+        <v>0.03843627083454182</v>
       </c>
     </row>
     <row r="7">
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3151</v>
+        <v>4108</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.005326749897081379</v>
+        <v>0.005326749897081378</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02412092295500691</v>
+        <v>0.03144663572978278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -967,19 +967,19 @@
         <v>2009</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5222</v>
+        <v>5523</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02894478865585518</v>
+        <v>0.02894478865585517</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009254927192082102</v>
+        <v>0.009174684219281326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07521147641306127</v>
+        <v>0.07955426195354699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -988,19 +988,19 @@
         <v>2705</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6969</v>
+        <v>7005</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01352331001789266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00352872706167787</v>
+        <v>0.003481642365450758</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03483585341775</v>
+        <v>0.03501849815002875</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>115260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105398</v>
+        <v>103824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122217</v>
+        <v>122015</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8824047989251661</v>
+        <v>0.8824047989251659</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8069062967811804</v>
+        <v>0.794853660776463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9356712311683757</v>
+        <v>0.9341227815012233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>90</v>
@@ -1038,19 +1038,19 @@
         <v>60701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55084</v>
+        <v>55589</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64670</v>
+        <v>64432</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8743364488045589</v>
+        <v>0.8743364488045583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7934375562189497</v>
+        <v>0.8007018811699218</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9315067857642376</v>
+        <v>0.928087272950281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>219</v>
@@ -1059,19 +1059,19 @@
         <v>175960</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164662</v>
+        <v>163840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184437</v>
+        <v>183504</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8796047054239753</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8231292708103871</v>
+        <v>0.8190201195197191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9219803526478247</v>
+        <v>0.917316343461326</v>
       </c>
     </row>
     <row r="9">
@@ -1088,19 +1088,19 @@
         <v>10181</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4528</v>
+        <v>4546</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21053</v>
+        <v>21646</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07794353677042737</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03466348596890424</v>
+        <v>0.03480362396468922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1611807346528284</v>
+        <v>0.1657180702596793</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1109,19 +1109,19 @@
         <v>1957</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5314</v>
+        <v>5397</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02818660539173745</v>
+        <v>0.02818660539173744</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008734746381328271</v>
+        <v>0.009029727838147639</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07654404640733456</v>
+        <v>0.07774504608722688</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1130,19 +1130,19 @@
         <v>12138</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5698</v>
+        <v>6202</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23343</v>
+        <v>24595</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0606755627596299</v>
+        <v>0.06067556275962991</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02848605854976315</v>
+        <v>0.03100121348983199</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1166896654870307</v>
+        <v>0.122948354132604</v>
       </c>
     </row>
     <row r="10">
@@ -1162,16 +1162,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3187</v>
+        <v>3080</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.004778261550592441</v>
+        <v>0.00477826155059244</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02439543986692658</v>
+        <v>0.02357787172309357</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2227</v>
+        <v>2188</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.005601599384048017</v>
+        <v>0.005601599384048014</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03207508100701285</v>
+        <v>0.03151783879818951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4011</v>
+        <v>3367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005063998148816547</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0200522423012753</v>
+        <v>0.01683066165929121</v>
       </c>
     </row>
     <row r="11">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2934</v>
+        <v>4027</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01130565926071957</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04668870047011911</v>
+        <v>0.06408156888626437</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4309</v>
+        <v>3916</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004300601453423267</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02608626086208476</v>
+        <v>0.02370908277906584</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>4556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1211</v>
+        <v>1110</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10842</v>
+        <v>10681</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04451169860711615</v>
+        <v>0.04451169860711614</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01182756052185793</v>
+        <v>0.01084119175390635</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1059267274639698</v>
+        <v>0.1043551529084885</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1331,19 +1331,19 @@
         <v>4556</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11490</v>
+        <v>10622</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02757972928895376</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007456456550293522</v>
+        <v>0.007504974617376777</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06955593663335237</v>
+        <v>0.0643047723627742</v>
       </c>
     </row>
     <row r="13">
@@ -1373,19 +1373,19 @@
         <v>2040</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5176</v>
+        <v>5104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03245950626280068</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009595468028356547</v>
+        <v>0.009680278248151054</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08236734687943732</v>
+        <v>0.0812288275152849</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1394,19 +1394,19 @@
         <v>2040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5633</v>
+        <v>5624</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01234739138974524</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003683975483853256</v>
+        <v>0.003731102644334339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03410353858990396</v>
+        <v>0.0340431313233406</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3465</v>
+        <v>5768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006650584591608034</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0338515326052332</v>
+        <v>0.05635578773491146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1444,19 +1444,19 @@
         <v>3449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7015</v>
+        <v>7271</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05488534503548868</v>
+        <v>0.05488534503548867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02113573303262896</v>
+        <v>0.02080486438355625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1116350453666038</v>
+        <v>0.1157095500088874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1465,19 +1465,19 @@
         <v>4129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1402</v>
+        <v>1372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8319</v>
+        <v>9014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02499878314303629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008488981960966299</v>
+        <v>0.008307703464720992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0503635945146516</v>
+        <v>0.05456902621215647</v>
       </c>
     </row>
     <row r="15">
@@ -1494,19 +1494,19 @@
         <v>93443</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>86156</v>
+        <v>86677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>98183</v>
+        <v>98128</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9129650069081328</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8417744739150477</v>
+        <v>0.8468596902360753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9592803005975634</v>
+        <v>0.9587433453665817</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>80</v>
@@ -1515,19 +1515,19 @@
         <v>57626</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53497</v>
+        <v>53087</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60693</v>
+        <v>60336</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9170781095479814</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8513752379507746</v>
+        <v>0.8448551574277456</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9658921017230762</v>
+        <v>0.9602170233187155</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>187</v>
@@ -1536,19 +1536,19 @@
         <v>151069</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>143993</v>
+        <v>143542</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>156418</v>
+        <v>156713</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9145296052020571</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8716933041051208</v>
+        <v>0.8689615280598781</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.946910173909871</v>
+        <v>0.9486957145650257</v>
       </c>
     </row>
     <row r="16">
@@ -1565,19 +1565,19 @@
         <v>3269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7652</v>
+        <v>7883</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03193648471355613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008280320840345044</v>
+        <v>0.008535429993376203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07476716510748604</v>
+        <v>0.07701918558935957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4749</v>
+        <v>5255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0271807769443376</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006817504793470212</v>
+        <v>0.006805415911854935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07557508592031904</v>
+        <v>0.0836330500421384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1607,19 +1607,19 @@
         <v>4977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2217</v>
+        <v>2153</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10348</v>
+        <v>9591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03012744348272606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0134218314675686</v>
+        <v>0.01303186240609539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06264157766848887</v>
+        <v>0.05806050984002468</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5875</v>
+        <v>5288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01058680977119491</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0574013240712597</v>
+        <v>0.05166471194559828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5660</v>
+        <v>5634</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006559654128241393</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03426426130810849</v>
+        <v>0.0341091836525781</v>
       </c>
     </row>
     <row r="18">
@@ -1703,19 +1703,19 @@
         <v>2444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6977</v>
+        <v>6853</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.02327628812240304</v>
+        <v>0.02327628812240303</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005733738416404301</v>
+        <v>0.005608867682977733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06645386978647116</v>
+        <v>0.06526896092778076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>2444</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6793</v>
+        <v>6383</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0191413647783212</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004629656700101326</v>
+        <v>0.004579638316412256</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05320229031497789</v>
+        <v>0.04999275691866718</v>
       </c>
     </row>
     <row r="19">
@@ -1766,19 +1766,19 @@
         <v>2993</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7916</v>
+        <v>8117</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0285027934315385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009080992123454068</v>
+        <v>0.009214031392667658</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07538846945441013</v>
+        <v>0.07730344964702851</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4536</v>
+        <v>3670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03442802575112747</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1999829452214695</v>
+        <v>0.1617936022739509</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1808,19 +1808,19 @@
         <v>3774</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9115</v>
+        <v>9019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02955538314466357</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007800810309197932</v>
+        <v>0.007695539244747983</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07138785219517037</v>
+        <v>0.07063844561596921</v>
       </c>
     </row>
     <row r="20">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3527</v>
+        <v>3805</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.006371058234738952</v>
+        <v>0.006371058234738951</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03359041819168097</v>
+        <v>0.03624148946990823</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1874,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3758</v>
+        <v>3363</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.00523926964014893</v>
+        <v>0.005239269640148931</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02943604828454326</v>
+        <v>0.02633861100319554</v>
       </c>
     </row>
     <row r="21">
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4174</v>
+        <v>3929</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.007592311031397279</v>
+        <v>0.007592311031397278</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03975576881951722</v>
+        <v>0.03742391314727453</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1924,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3120</v>
+        <v>3533</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.02930338297077366</v>
+        <v>0.02930338297077365</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.137571782672514</v>
+        <v>0.1557720967731605</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4748</v>
+        <v>5184</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01144918106647654</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03718563499628263</v>
+        <v>0.04059791485466261</v>
       </c>
     </row>
     <row r="22">
@@ -1971,19 +1971,19 @@
         <v>95335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89377</v>
+        <v>88972</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100126</v>
+        <v>100292</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.907982436752405</v>
+        <v>0.9079824367524049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8512295681395806</v>
+        <v>0.8473783217123009</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9536064788710191</v>
+        <v>0.9551846104792296</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -1992,19 +1992,19 @@
         <v>20805</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17380</v>
+        <v>17615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22266</v>
+        <v>22253</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9172588144714426</v>
+        <v>0.9172588144714425</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7662490757467177</v>
+        <v>0.7766060784074623</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9816396408204916</v>
+        <v>0.9811078186790886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>144</v>
@@ -2013,19 +2013,19 @@
         <v>116141</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>108937</v>
+        <v>109130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121369</v>
+        <v>120810</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.909630341718062</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8532114049606687</v>
+        <v>0.8547239284470759</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9505762415215657</v>
+        <v>0.9461999693263292</v>
       </c>
     </row>
     <row r="23">
@@ -2042,19 +2042,19 @@
         <v>3799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1097</v>
+        <v>938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8958</v>
+        <v>10053</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03618621938739668</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01044962792202559</v>
+        <v>0.008934218615575456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08531857314219672</v>
+        <v>0.09574543424338047</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2066,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4106</v>
+        <v>3936</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05005208032621955</v>
+        <v>0.05005208032621954</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1810190945638796</v>
+        <v>0.1735478227095615</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2084,19 +2084,19 @@
         <v>4935</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2071</v>
+        <v>1945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11265</v>
+        <v>10518</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03864942450756994</v>
+        <v>0.03864942450756995</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01622240308325401</v>
+        <v>0.01523288416891518</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08823021269935806</v>
+        <v>0.08238168554727013</v>
       </c>
     </row>
     <row r="24">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6881</v>
+        <v>7474</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.010149264750069</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03262537481192406</v>
+        <v>0.03543468817058593</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2188,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3812</v>
+        <v>4067</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01278407602754971</v>
+        <v>0.01278407602754972</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04479353841784533</v>
+        <v>0.04778920645793932</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2206,19 +2206,19 @@
         <v>3229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>602</v>
+        <v>994</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7640</v>
+        <v>8220</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01090678125091928</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002032199296912729</v>
+        <v>0.003358035859240802</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02580797802344918</v>
+        <v>0.02776689520531308</v>
       </c>
     </row>
     <row r="26">
@@ -2235,19 +2235,19 @@
         <v>9363</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4327</v>
+        <v>4244</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16987</v>
+        <v>17205</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04438883077759113</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02051507263315474</v>
+        <v>0.02012001298907778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08053831175398374</v>
+        <v>0.08156851561685417</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2256,19 +2256,19 @@
         <v>3029</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7430</v>
+        <v>7225</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03558470555725529</v>
+        <v>0.03558470555725531</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008379277358342251</v>
+        <v>0.008362972376503384</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08729461003031511</v>
+        <v>0.0848900010396815</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2277,19 +2277,19 @@
         <v>12391</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6750</v>
+        <v>6499</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20932</v>
+        <v>20570</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04185761718102063</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02280004962228663</v>
+        <v>0.02195188666099496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07070682410975235</v>
+        <v>0.06948666914089016</v>
       </c>
     </row>
     <row r="27">
@@ -2306,19 +2306,19 @@
         <v>3563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>881</v>
+        <v>1072</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8449</v>
+        <v>8400</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01689423359496763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.004178271260939862</v>
+        <v>0.005082833516808029</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04005807993723655</v>
+        <v>0.0398253390347761</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -2327,19 +2327,19 @@
         <v>1804</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4991</v>
+        <v>4881</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.02119237231755587</v>
+        <v>0.02119237231755588</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.006551143039684413</v>
+        <v>0.006613661163072944</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05864306972963741</v>
+        <v>0.0573439467738401</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -2348,19 +2348,19 @@
         <v>5367</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2306</v>
+        <v>2149</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>10868</v>
+        <v>11145</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01812996194983382</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.007790619796476569</v>
+        <v>0.00725933836063374</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03671120770253741</v>
+        <v>0.03764896160459408</v>
       </c>
     </row>
     <row r="28">
@@ -2377,19 +2377,19 @@
         <v>3206</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1165</v>
+        <v>1004</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7508</v>
+        <v>7166</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01520018466626281</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005524492323221832</v>
+        <v>0.004757905658263023</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03559560401168556</v>
+        <v>0.03397463881596564</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4736</v>
+        <v>4165</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01612456967407608</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05564710452672557</v>
+        <v>0.04894078474734425</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2419,19 +2419,19 @@
         <v>4578</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8890</v>
+        <v>9338</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01546594825340925</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00655248635729488</v>
+        <v>0.006548889407390473</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03003063698774824</v>
+        <v>0.03154295368286345</v>
       </c>
     </row>
     <row r="29">
@@ -2448,19 +2448,19 @@
         <v>187819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>177940</v>
+        <v>178025</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>195526</v>
+        <v>195678</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8904635622238847</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8436266964013901</v>
+        <v>0.8440291088531584</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9270018736918685</v>
+        <v>0.9277205688250019</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>106</v>
@@ -2469,19 +2469,19 @@
         <v>76595</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>71187</v>
+        <v>70894</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>80304</v>
+        <v>80217</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8999434493130369</v>
+        <v>0.899943449313037</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8363999648424019</v>
+        <v>0.8329604022365272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9435184512192604</v>
+        <v>0.9424980850760126</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>331</v>
@@ -2490,19 +2490,19 @@
         <v>264414</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>251800</v>
+        <v>254045</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>272727</v>
+        <v>273041</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8931890594758536</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8505765132448615</v>
+        <v>0.8581601928954674</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9212707471822944</v>
+        <v>0.9223308840045324</v>
       </c>
     </row>
     <row r="30">
@@ -2519,19 +2519,19 @@
         <v>5957</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2171</v>
+        <v>2314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12727</v>
+        <v>12326</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02824134302298485</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01029339900078667</v>
+        <v>0.01096920472190839</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06033898937189519</v>
+        <v>0.05843603745780666</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2540,19 +2540,19 @@
         <v>3890</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1393</v>
+        <v>1740</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8306</v>
+        <v>8050</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04570946714619292</v>
+        <v>0.04570946714619294</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01636583491893471</v>
+        <v>0.02043867092455429</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09758938266747842</v>
+        <v>0.0945775103073247</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -2561,19 +2561,19 @@
         <v>9847</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5473</v>
+        <v>5056</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>16718</v>
+        <v>16769</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03326348346064199</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01848894560641649</v>
+        <v>0.01707889532365536</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05647390977478076</v>
+        <v>0.05664684182262601</v>
       </c>
     </row>
     <row r="31">
@@ -2654,19 +2654,19 @@
         <v>1904</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4747</v>
+        <v>5090</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02385981510472485</v>
+        <v>0.02385981510472486</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007158338639287829</v>
+        <v>0.007602479143863678</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05947569552786135</v>
+        <v>0.06377146017004208</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2675,19 +2675,19 @@
         <v>1904</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5357</v>
+        <v>5284</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01094132009890344</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0</v>
+        <v>0.003445587539294544</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03077615105645498</v>
+        <v>0.03035841806842435</v>
       </c>
     </row>
     <row r="33">
@@ -2704,19 +2704,19 @@
         <v>6700</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2446</v>
+        <v>2795</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>13362</v>
+        <v>13875</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07109222018071633</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02595529355433265</v>
+        <v>0.0296606556309616</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1417918709451119</v>
+        <v>0.1472299660802309</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2725,19 +2725,19 @@
         <v>4696</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2030</v>
+        <v>2046</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>9218</v>
+        <v>9175</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0588391534196939</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02543630154117331</v>
+        <v>0.02563612110651558</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1154967438842464</v>
+        <v>0.1149568236227127</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>13</v>
@@ -2746,19 +2746,19 @@
         <v>11396</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>6267</v>
+        <v>6571</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>19173</v>
+        <v>18988</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.06547337003300366</v>
+        <v>0.06547337003300364</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.036009036440476</v>
+        <v>0.03775545388654016</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1101585329568787</v>
+        <v>0.1090914658988463</v>
       </c>
     </row>
     <row r="34">
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3429</v>
+        <v>2937</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008354198488252307</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04296800590253809</v>
+        <v>0.03680368214751507</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3834</v>
+        <v>3351</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003830958430672961</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0220249163276275</v>
+        <v>0.01925473511395893</v>
       </c>
     </row>
     <row r="35">
@@ -2838,19 +2838,19 @@
         <v>2865</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6894</v>
+        <v>7706</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.03039778498414053</v>
+        <v>0.03039778498414052</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007654187603881236</v>
+        <v>0.008454771162625508</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07315215788546878</v>
+        <v>0.08177606063531051</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2859,19 +2859,19 @@
         <v>2464</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5853</v>
+        <v>6055</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03087192825149884</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008455534854198725</v>
+        <v>0.008670924349806333</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0733366238474055</v>
+        <v>0.07586721152283228</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -2880,19 +2880,19 @@
         <v>5329</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2368</v>
+        <v>2549</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10374</v>
+        <v>9332</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03061521136561655</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01360569703153144</v>
+        <v>0.01464563826746806</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05960047291236923</v>
+        <v>0.05361705618015688</v>
       </c>
     </row>
     <row r="36">
@@ -2909,19 +2909,19 @@
         <v>83808</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77212</v>
+        <v>76029</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>88814</v>
+        <v>88471</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8893233841142277</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8193301570353668</v>
+        <v>0.8067723404642566</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.942438550922448</v>
+        <v>0.9388027618789603</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>96</v>
@@ -2930,19 +2930,19 @@
         <v>69628</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>64295</v>
+        <v>63735</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>73952</v>
+        <v>73530</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8723707226934161</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8055451794631288</v>
+        <v>0.7985311623282125</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9265371715961815</v>
+        <v>0.9212573367068149</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>196</v>
@@ -2951,19 +2951,19 @@
         <v>153436</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>144347</v>
+        <v>145324</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>160105</v>
+        <v>160198</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8815494556776783</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8293292924367953</v>
+        <v>0.8349400644580827</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9198608730651899</v>
+        <v>0.920395880725982</v>
       </c>
     </row>
     <row r="37">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6099</v>
+        <v>6245</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01298621891637007</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06471580500965478</v>
+        <v>0.06627261602213153</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3817</v>
+        <v>4349</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01399089715153731</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04782113860446715</v>
+        <v>0.05449123659206496</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3</v>
@@ -3022,19 +3022,19 @@
         <v>2340</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7143</v>
+        <v>7624</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01344693104339696</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.002484670819061825</v>
+        <v>0.002509023599844229</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04103830159210994</v>
+        <v>0.04380554354013973</v>
       </c>
     </row>
     <row r="38">
@@ -3054,16 +3054,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3296</v>
+        <v>3055</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.006062263845448145</v>
+        <v>0.006062263845448144</v>
       </c>
       <c r="H38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03497958729695105</v>
+        <v>0.0324126852930038</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2895</v>
+        <v>2910</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.003282310649418449</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01663570101576278</v>
+        <v>0.01672113570729182</v>
       </c>
     </row>
     <row r="39">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4309</v>
+        <v>4237</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1389145403238971</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6464068972032148</v>
+        <v>0.6355921051383882</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3378</v>
+        <v>3109</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.01772828628544714</v>
+        <v>0.01772828628544713</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08850406352496241</v>
+        <v>0.08145259100068715</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5379</v>
+        <v>5671</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03574585634871377</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1199782202455805</v>
+        <v>0.1264859759805034</v>
       </c>
     </row>
     <row r="41">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4714</v>
+        <v>4765</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.215039338398753</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7071995146843909</v>
+        <v>0.7147599439986223</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2662</v>
+        <v>2542</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01304242415549498</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06974364072629763</v>
+        <v>0.06661292391535147</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3325,19 +3325,19 @@
         <v>1931</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5770</v>
+        <v>5709</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04307465498744086</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01062642805075367</v>
+        <v>0.01080052978264163</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1286920382732624</v>
+        <v>0.1273459616804506</v>
       </c>
     </row>
     <row r="43">
@@ -3375,16 +3375,16 @@
         <v>36993</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>34289</v>
+        <v>34316</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>38167</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.9692292895590581</v>
+        <v>0.9692292895590578</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.89839244332556</v>
+        <v>0.8990945370373009</v>
       </c>
       <c r="P43" s="6" t="n">
         <v>1</v>
@@ -3396,19 +3396,19 @@
         <v>42225</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>38477</v>
+        <v>38103</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>44133</v>
+        <v>44159</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.9418328414962399</v>
+        <v>0.9418328414962397</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.8582389755297646</v>
+        <v>0.849894951027496</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.9843932514314891</v>
+        <v>0.98496254276413</v>
       </c>
     </row>
     <row r="44">
@@ -3523,19 +3523,19 @@
         <v>4585</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1604</v>
+        <v>1420</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>10100</v>
+        <v>11121</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007055554413746533</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002468847892186982</v>
+        <v>0.002184572058723894</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01554284693362927</v>
+        <v>0.01711432520232067</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -3544,19 +3544,19 @@
         <v>6089</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2980</v>
+        <v>2837</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11370</v>
+        <v>10822</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01700656109350639</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00832411392916931</v>
+        <v>0.007923234303455739</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0317576171598626</v>
+        <v>0.03022469314489963</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>14</v>
@@ -3565,19 +3565,19 @@
         <v>10674</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>6063</v>
+        <v>6295</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>18178</v>
+        <v>18111</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.01059068635636438</v>
+        <v>0.01059068635636437</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006015535543957262</v>
+        <v>0.006245957565560152</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01803685148995248</v>
+        <v>0.01797020837964016</v>
       </c>
     </row>
     <row r="47">
@@ -3594,19 +3594,19 @@
         <v>27705</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>18697</v>
+        <v>19012</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>40419</v>
+        <v>40557</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04263679942287475</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02877356321472988</v>
+        <v>0.02925836083034963</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06220219094871547</v>
+        <v>0.06241423169883973</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>14</v>
@@ -3615,19 +3615,19 @@
         <v>9888</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>5947</v>
+        <v>5400</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>16225</v>
+        <v>15730</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02761685566940865</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0166101536030426</v>
+        <v>0.01508247633013848</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04531626298885656</v>
+        <v>0.04393488366668775</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>40</v>
@@ -3636,19 +3636,19 @@
         <v>37593</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>27072</v>
+        <v>26646</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>50595</v>
+        <v>51500</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.03730090882929284</v>
+        <v>0.03730090882929283</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02686139269267651</v>
+        <v>0.02643850063441648</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05020207365001959</v>
+        <v>0.05109989367356879</v>
       </c>
     </row>
     <row r="48">
@@ -3665,19 +3665,19 @@
         <v>4923</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1981</v>
+        <v>1753</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>10191</v>
+        <v>10233</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.007576613565624285</v>
+        <v>0.007576613565624283</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.003048953560174164</v>
+        <v>0.00269822454148318</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01568333999723745</v>
+        <v>0.01574728787044521</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>11</v>
@@ -3686,19 +3686,19 @@
         <v>7092</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3480</v>
+        <v>3882</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>12216</v>
+        <v>13689</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01980923383494361</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.009720033593317901</v>
+        <v>0.0108437941316399</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03411943765483465</v>
+        <v>0.0382341260155843</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>17</v>
@@ -3707,19 +3707,19 @@
         <v>12016</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>6799</v>
+        <v>7165</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>18797</v>
+        <v>19428</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.0119222971781117</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.00674648524731032</v>
+        <v>0.007109552952845732</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01865086158702365</v>
+        <v>0.01927715869581678</v>
       </c>
     </row>
     <row r="49">
@@ -3736,19 +3736,19 @@
         <v>9678</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>5414</v>
+        <v>5448</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>16089</v>
+        <v>16121</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01489349486960824</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.008331659604670867</v>
+        <v>0.008384136508300322</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02475962711476863</v>
+        <v>0.02480882708399436</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>16</v>
@@ -3757,19 +3757,19 @@
         <v>10457</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>6403</v>
+        <v>5878</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>16558</v>
+        <v>17153</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02920696138573781</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01788396780009983</v>
+        <v>0.01641789184183885</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04624592264921479</v>
+        <v>0.04790980484848766</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>30</v>
@@ -3778,19 +3778,19 @@
         <v>20135</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>13793</v>
+        <v>14174</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>28642</v>
+        <v>27979</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01997840681059607</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01368573015495947</v>
+        <v>0.01406420050938772</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02841977839161963</v>
+        <v>0.02776113785699204</v>
       </c>
     </row>
     <row r="50">
@@ -3807,19 +3807,19 @@
         <v>580899</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>563829</v>
+        <v>563345</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>595147</v>
+        <v>595912</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8939710726977946</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8677018375586969</v>
+        <v>0.8669574703460661</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9158984535153524</v>
+        <v>0.9170759872540704</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>462</v>
@@ -3828,19 +3828,19 @@
         <v>322348</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>311714</v>
+        <v>312267</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>330635</v>
+        <v>331329</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9003216317065132</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8706221885725109</v>
+        <v>0.8721668794809473</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.923468095207734</v>
+        <v>0.9254080323578906</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1139</v>
@@ -3849,19 +3849,19 @@
         <v>903245</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>884032</v>
+        <v>882593</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>921593</v>
+        <v>919585</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.89622713228329</v>
+        <v>0.8962271322832899</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8771632510234237</v>
+        <v>0.87573533082682</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9144322788646726</v>
+        <v>0.9124393967977539</v>
       </c>
     </row>
     <row r="51">
@@ -3878,19 +3878,19 @@
         <v>24430</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>15990</v>
+        <v>15090</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>37564</v>
+        <v>35893</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.03759600121526097</v>
+        <v>0.03759600121526098</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.02460709551097299</v>
+        <v>0.02322334594605039</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.05780921755882697</v>
+        <v>0.05523741627356425</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>16</v>
@@ -3899,19 +3899,19 @@
         <v>9807</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>6100</v>
+        <v>5657</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>15481</v>
+        <v>15569</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.02739138400944994</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.0170382410642041</v>
+        <v>0.01580034264768053</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.04323796126756205</v>
+        <v>0.04348350407208638</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>39</v>
@@ -3920,19 +3920,19 @@
         <v>34237</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>24333</v>
+        <v>24584</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>48792</v>
+        <v>49409</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.03397077319488136</v>
+        <v>0.03397077319488135</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.02414441380355864</v>
+        <v>0.02439331220962572</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.04841328030165937</v>
+        <v>0.04902513718859322</v>
       </c>
     </row>
     <row r="52">
@@ -3949,19 +3949,19 @@
         <v>2279</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>6718</v>
+        <v>6780</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.003507265262096252</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0008833620063647401</v>
+        <v>0.0008859083075457656</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01033798740988144</v>
+        <v>0.01043390882680613</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1592</v>
+        <v>2170</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.001086174718616986</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.004445109283208191</v>
+        <v>0.00606158441219157</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>4</v>
@@ -3991,19 +3991,19 @@
         <v>2668</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>771</v>
+        <v>946</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7239</v>
+        <v>7208</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.002647163888269207</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.000764992132168004</v>
+        <v>0.0009383002087351854</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.007182877943893571</v>
+        <v>0.007152486159611163</v>
       </c>
     </row>
     <row r="53">
